--- a/information/BioPro_2015 Speakers_v2-1.xlsx
+++ b/information/BioPro_2015 Speakers_v2-1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7935" windowWidth="20055" xWindow="240" yWindow="75"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId4" name="Speakers Status" sheetId="1"/>
+    <sheet name="Speakers Status" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Speakers Status'!$A$3:$H$28</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t xml:space="preserve">                                                                                                                                                                           BIOPRO 2015 SPEAKERS INFORMATION</t>
   </si>
@@ -354,209 +356,70 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <numFmts count="36">
-    <numFmt formatCode="General" numFmtId="0"/>
-    <numFmt formatCode="0" numFmtId="1"/>
-    <numFmt formatCode="0.00" numFmtId="2"/>
-    <numFmt formatCode="#,##0" numFmtId="3"/>
-    <numFmt formatCode="#,##0.00" numFmtId="4"/>
-    <numFmt formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)" numFmtId="5"/>
-    <numFmt formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)" numFmtId="6"/>
-    <numFmt formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)" numFmtId="7"/>
-    <numFmt formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)" numFmtId="8"/>
-    <numFmt formatCode="0%" numFmtId="9"/>
-    <numFmt formatCode="0.00%" numFmtId="10"/>
-    <numFmt formatCode="0.00E+00" numFmtId="11"/>
-    <numFmt formatCode="# ?/?" numFmtId="12"/>
-    <numFmt formatCode="# ??/??" numFmtId="13"/>
-    <numFmt formatCode="m/d/yyyy" numFmtId="14"/>
-    <numFmt formatCode="d-mmm-yy" numFmtId="15"/>
-    <numFmt formatCode="d-mmm" numFmtId="16"/>
-    <numFmt formatCode="mmm-yy" numFmtId="17"/>
-    <numFmt formatCode="h:mm AM/PM" numFmtId="18"/>
-    <numFmt formatCode="h:mm:ss AM/PM" numFmtId="19"/>
-    <numFmt formatCode="h:mm" numFmtId="20"/>
-    <numFmt formatCode="h:mm:ss" numFmtId="21"/>
-    <numFmt formatCode="m/d/yyyy h:mm" numFmtId="22"/>
-    <numFmt formatCode="_(#,##0_);(#,##0)" numFmtId="37"/>
-    <numFmt formatCode="_(#,##0_);[Red](#,##0)" numFmtId="38"/>
-    <numFmt formatCode="_(#,##0.00_);(#,##0.00)" numFmtId="39"/>
-    <numFmt formatCode="_(#,##0.00_);[Red](#,##0.00)" numFmtId="40"/>
-    <numFmt formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)" numFmtId="41"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" numFmtId="42"/>
-    <numFmt formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)" numFmtId="43"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="44"/>
-    <numFmt formatCode="mm:ss" numFmtId="45"/>
-    <numFmt formatCode="[h]:mm:ss" numFmtId="46"/>
-    <numFmt formatCode="mm:ss.0" numFmtId="47"/>
-    <numFmt formatCode="##0.0E+0" numFmtId="48"/>
-    <numFmt formatCode="@" numFmtId="49"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color theme="1" tint="0"/>
-      <sz val="11"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <sz val="10"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <sz val="10"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <sz val="10"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <sz val="10"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color theme="1" tint="0"/>
-      <sz val="11"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
       <family val="1"/>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color theme="1" tint="0"/>
-      <sz val="12"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
-      <family val="1"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color theme="1" tint="0"/>
-      <sz val="12"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color theme="10" tint="0"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <vertAlign val="baseline"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-      <family val="1"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color theme="10" tint="0"/>
-      <sz val="12"/>
-      <u val="single"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-      <family val="1"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -568,48 +431,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
+        <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border diagonalDown="0" diagonalUp="0"/>
-    <border diagonalDown="0" diagonalUp="0">
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top>
-        <color indexed="0"/>
-      </top>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-      <diagonal>
-        <color indexed="0"/>
-      </diagonal>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="0" diagonalUp="0">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -622,165 +474,108 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border diagonalDown="0" diagonalUp="0">
-      <start>
-        <color indexed="0"/>
-      </start>
-      <end>
-        <color indexed="0"/>
-      </end>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+  <cellStyleXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="43" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="41" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="44" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="42" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle name="Text" xfId="0"/>
-    <cellStyle name="Bold text" xfId="0"/>
-    <cellStyle name="Number" xfId="0"/>
-    <cellStyle name="Money" xfId="0"/>
-    <cellStyle name="Percentage" xfId="0"/>
-    <cellStyle name="Col header" xfId="0"/>
-    <cellStyle name="Date" xfId="0"/>
-    <cellStyle name="Time" xfId="0"/>
-    <cellStyle name="Date &amp; time" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Bold text" xfId="3"/>
+    <cellStyle name="Col header" xfId="7"/>
+    <cellStyle name="Date" xfId="8"/>
+    <cellStyle name="Date &amp; time" xfId="10"/>
+    <cellStyle name="Money" xfId="5"/>
+    <cellStyle name="Number" xfId="4"/>
+    <cellStyle name="Percentage" xfId="6"/>
+    <cellStyle name="Text" xfId="2"/>
+    <cellStyle name="Time" xfId="9"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -943,7 +738,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -952,13 +747,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -968,7 +763,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -977,7 +772,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -986,7 +781,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -996,12 +791,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1032,7 +827,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1051,7 +846,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1107,683 +902,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="27.140625"/>
-    <col customWidth="1" max="3" min="3" width="33.5703125"/>
-    <col customWidth="1" max="4" min="4" width="27.28515625"/>
-    <col customWidth="1" max="5" min="5" width="31.28515625"/>
-    <col customWidth="1" max="6" min="6" width="50"/>
-    <col customWidth="1" max="7" min="7" width="10.5703125"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-    </row>
-    <row ht="15.75" r="3">
-      <c r="A3" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="31.5" r="4">
-      <c r="A4" s="22">
+    <row r="4" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row ht="47.25" r="5">
-      <c r="A5" s="22">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row ht="31.5" r="6">
-      <c r="A6" s="22">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row ht="15.75" r="7">
-      <c r="A7" s="22">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row ht="30" r="8">
-      <c r="A8" s="22">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="15.75" r="9">
-      <c r="A9" s="22">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="15.75" r="10">
-      <c r="A10" s="22">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row ht="15.75" r="11">
-      <c r="A11" s="22">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row ht="31.5" r="12">
-      <c r="A12" s="22">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="31.5" r="13">
-      <c r="A13" s="22">
+    <row r="13" spans="1:20" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="31.5" r="14">
-      <c r="A14" s="22">
+    <row r="14" spans="1:20" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row ht="31.5" r="15">
-      <c r="A15" s="22">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row ht="47.25" r="16">
-      <c r="A16" s="22">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="47.25" r="17">
-      <c r="A17" s="22">
+    <row r="17" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="47.25" r="18">
-      <c r="A18" s="22">
+    <row r="18" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="47.25" r="19">
-      <c r="A19" s="22">
+    <row r="19" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row ht="31.5" r="20">
-      <c r="A20" s="22">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="31.5" r="21">
-      <c r="A21" s="22">
+    <row r="21" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row ht="31.5" r="22">
-      <c r="A22" s="22">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="31.5" r="23">
-      <c r="A23" s="22">
+    <row r="23" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row ht="31.5" r="24">
-      <c r="A24" s="22">
+    <row r="24" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row ht="45" r="25">
-      <c r="A25" s="22">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row ht="31.5" r="26">
-      <c r="A26" s="22">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="31.5" r="27">
-      <c r="A27" s="22">
+    <row r="27" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row ht="31.5" r="28">
-      <c r="A28" s="22">
+    <row r="28" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="13" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H28">
-    <filterColumn colId="2"/>
-    <filterColumn colId="7"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Neuroinformatics"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2"/>
